--- a/plots/label_stats_processed.xlsx
+++ b/plots/label_stats_processed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHI\2_RESEARCH\Research\DigitalPathology\Code\to-plot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHI\2_RESEARCH\Research\DigitalPathology\Code\to-plot\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAB7269-13BE-4B83-A5EC-5AE77C096C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED05AE6-5072-4ACC-A39C-AA5C191DA0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label_stats" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">luad!$A$1:$D$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">luad_early_stage!$A$1:$C$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">lusc!$A$1:$D$167</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'staging stats'!$C$25:$D$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'staging stats'!$E$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'staging stats'!$E$25:$E$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId13"/>
     <pivotCache cacheId="1" r:id="rId14"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -128,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -656,7 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -676,21 +672,11 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9018,7 +9004,7 @@
   <dimension ref="A1:E413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24889,54 +24875,52 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="23"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="23"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="17"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="23"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="23"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="C28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24974,2832 +24958,2832 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="6">
         <v>0.479999989271163</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="7">
         <v>0.27020001411437899</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="9">
         <v>0.479999989271163</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="10">
         <v>0.27020001411437899</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
-        <v>4</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="7">
         <v>0.25519999861717202</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="9">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="10">
         <v>0.25519999861717202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="5">
         <v>12</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="6">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>1.8400000408291799E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="8">
         <v>13</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="9">
         <v>0.62999999523162797</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="10">
         <v>0.384999990463256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="5">
         <v>14</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="6">
         <v>0.62999999523162797</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="7">
         <v>0.384999990463256</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="8">
         <v>17</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="9">
         <v>0.41999998688697798</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="10">
         <v>0.366100013256073</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="5">
         <v>18</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="6">
         <v>0.41999998688697798</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="7">
         <v>0.366100013256073</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="8">
         <v>21</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="9">
         <v>0.730000019073486</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="10">
         <v>0.70399999618530196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="5">
         <v>24</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="6">
         <v>0.68000000715255704</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="7">
         <v>0.5067999958992</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="8">
         <v>25</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="9">
         <v>0.56000000238418501</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="10">
         <v>0.466500014066696</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="5">
         <v>26</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="6">
         <v>0.56000000238418501</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="7">
         <v>0.466500014066696</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="8">
         <v>33</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="9">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="10">
         <v>0.21639999747276301</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="5">
         <v>34</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="6">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="7">
         <v>0.21639999747276301</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="8">
         <v>37</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="9">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="10">
         <v>0.63880002498626698</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="5">
         <v>38</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="6">
         <v>0.76999998092651301</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="7">
         <v>0.59179997444152799</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="8">
         <v>44</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="9">
         <v>0.21999999880790699</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="10">
         <v>1.9999999494757501E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="5">
         <v>45</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="6">
         <v>0.21999999880790699</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="7">
         <v>1.9999999494757501E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="8">
         <v>48</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="9">
         <v>0.5</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="10">
         <v>0.48640000820159901</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="5">
         <v>49</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="6">
         <v>0.5</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="7">
         <v>0.48640000820159901</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="8">
         <v>52</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="9">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="10">
         <v>0.238900005817413</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="5">
         <v>53</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="6">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="7">
         <v>0.238900005817413</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="8">
         <v>56</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="9">
         <v>0.259999990463256</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="10">
         <v>4.3900001794099801E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="5">
         <v>65</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="6">
         <v>0.20999999344348899</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="7">
         <v>7.9999997979030002E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="8">
         <v>67</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="9">
         <v>0.75</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="10">
         <v>0.58109998703002896</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
+      <c r="A28" s="5">
         <v>69</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="6">
         <v>0.61000001430511397</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="7">
         <v>0.58179998397827104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="8">
         <v>71</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="9">
         <v>0.270000010728836</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="10">
         <v>0.217700004577636</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="A30" s="5">
         <v>72</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="6">
         <v>0.270000010728836</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="7">
         <v>0.217700004577636</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="A31" s="8">
         <v>73</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="9">
         <v>0.270000010728836</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="10">
         <v>0.217700004577636</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
+      <c r="A32" s="5">
         <v>77</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="6">
         <v>0.5</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="7">
         <v>0.30630001425743097</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="A33" s="8">
         <v>79</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="9">
         <v>0.25</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="10">
         <v>1.0900000110268499E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
+      <c r="A34" s="5">
         <v>80</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="6">
         <v>0.730000019073486</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="7">
         <v>0.111599996685981</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+      <c r="A35" s="8">
         <v>81</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="9">
         <v>0.730000019073486</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="10">
         <v>0.111599996685981</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
+      <c r="A36" s="5">
         <v>84</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="6">
         <v>0.17000000178813901</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="7">
         <v>0.11770000308752</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="A37" s="8">
         <v>85</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="9">
         <v>0.17000000178813901</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="10">
         <v>0.11770000308752</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
+      <c r="A38" s="5">
         <v>88</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="6">
         <v>0.50999999046325595</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="7">
         <v>0.142800003290176</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="8">
         <v>90</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="9">
         <v>0.56999999284744196</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="10">
         <v>0.40599998831748901</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
+      <c r="A40" s="5">
         <v>91</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="6">
         <v>0.38999998569488498</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="7">
         <v>0.30259999632835299</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="8">
         <v>92</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="9">
         <v>0.51999998092651301</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="10">
         <v>0.43340000510215698</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
+      <c r="A42" s="5">
         <v>97</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="6">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="7">
         <v>4.1000001132488202E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="8">
         <v>102</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="9">
         <v>0.230000004172325</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="10">
         <v>9.6400000154971993E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
+      <c r="A44" s="5">
         <v>105</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="6">
         <v>0.56000000238418501</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="7">
         <v>0.25499999523162797</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+      <c r="A45" s="8">
         <v>107</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="9">
         <v>0.56000000238418501</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="10">
         <v>0.277900010347366</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
+      <c r="A46" s="5">
         <v>108</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="6">
         <v>0.33000001311302102</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="7">
         <v>3.2499998807907098E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
+      <c r="A47" s="8">
         <v>109</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="9">
         <v>0.40999999642372098</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="10">
         <v>6.4300000667571994E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
+      <c r="A48" s="5">
         <v>110</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="6">
         <v>0.60000002384185702</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="7">
         <v>0.48449999094009399</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
+      <c r="A49" s="8">
         <v>112</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="9">
         <v>0.37999999523162797</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="10">
         <v>0.283499985933303</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="15">
+      <c r="A50" s="5">
         <v>113</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="6">
         <v>0.34000000357627802</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="7">
         <v>0.27829998731613098</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="18">
+      <c r="A51" s="8">
         <v>114</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="9">
         <v>0.21999999880790699</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="10">
         <v>0.104599997401237</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="15">
+      <c r="A52" s="5">
         <v>115</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="6">
         <v>0.46000000834464999</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="7">
         <v>0.16140000522136599</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
+      <c r="A53" s="8">
         <v>116</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="9">
         <v>0.56999999284744196</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="10">
         <v>0.46140000224113398</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="15">
+      <c r="A54" s="5">
         <v>117</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="6">
         <v>0.239999994635581</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="7">
         <v>4.3900001794099801E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="18">
+      <c r="A55" s="8">
         <v>118</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="9">
         <v>0.259999990463256</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="10">
         <v>7.5800001621246296E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="15">
+      <c r="A56" s="5">
         <v>120</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="6">
         <v>0.63999998569488503</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="7">
         <v>0.56419998407363803</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="18">
+      <c r="A57" s="8">
         <v>122</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="9">
         <v>0.37999999523162797</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="10">
         <v>0.18019999563694</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="15">
+      <c r="A58" s="5">
         <v>124</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="6">
         <v>0.31999999284744202</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="7">
         <v>0.33199998736381497</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="18">
+      <c r="A59" s="8">
         <v>126</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="9">
         <v>0.28000000119209201</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="10">
         <v>6.5999999642372097E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="15">
+      <c r="A60" s="5">
         <v>127</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="6">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="7">
         <v>0.188600003719329</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
+      <c r="A61" s="8">
         <v>128</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="9">
         <v>0.57999998331069902</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="10">
         <v>0.54189997911453203</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="15">
+      <c r="A62" s="5">
         <v>129</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="6">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="7">
         <v>0.47699999809265098</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="18">
+      <c r="A63" s="8">
         <v>130</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="9">
         <v>0.54000002145767201</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="10">
         <v>0.20690000057220401</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="15">
+      <c r="A64" s="5">
         <v>131</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="6">
         <v>0.81000000238418501</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="7">
         <v>0.33160001039504999</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="18">
+      <c r="A65" s="8">
         <v>132</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="9">
         <v>0.41999998688697798</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="10">
         <v>0.36669999361038202</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="15">
+      <c r="A66" s="5">
         <v>133</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="6">
         <v>0.40999999642372098</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="7">
         <v>0.426400005817413</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="18">
+      <c r="A67" s="8">
         <v>134</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="9">
         <v>0.20999999344348899</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="10">
         <v>0.21500000357627799</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="15">
+      <c r="A68" s="5">
         <v>135</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="6">
         <v>0.31999999284744202</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="7">
         <v>0.20659999549388799</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="18">
+      <c r="A69" s="8">
         <v>136</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="9">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="10">
         <v>0.37529999017715399</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="15">
+      <c r="A70" s="5">
         <v>137</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="6">
         <v>0.57999998331069902</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="7">
         <v>0.35089999437332098</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="18">
+      <c r="A71" s="8">
         <v>141</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="9">
         <v>0.21999999880790699</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="10">
         <v>2.7499999850988301E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="15">
+      <c r="A72" s="5">
         <v>142</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="6">
         <v>0.54000002145767201</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="7">
         <v>0.48910000920295699</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="18">
+      <c r="A73" s="8">
         <v>143</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B73" s="9">
         <v>0.31000000238418501</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="10">
         <v>5.9099998325109399E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="15">
+      <c r="A74" s="5">
         <v>145</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="6">
         <v>0.21999999880790699</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="7">
         <v>3.8600001484155599E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="18">
+      <c r="A75" s="8">
         <v>146</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="9">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="10">
         <v>0.33349999785423201</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="15">
+      <c r="A76" s="5">
         <v>147</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="6">
         <v>0.62000000476837103</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="7">
         <v>0.67290002107620195</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="18">
+      <c r="A77" s="8">
         <v>149</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="9">
         <v>0.57999998331069902</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="10">
         <v>0.44220000505447299</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="15">
+      <c r="A78" s="5">
         <v>150</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="6">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="7">
         <v>0.31600001454353299</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="18">
+      <c r="A79" s="8">
         <v>151</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="9">
         <v>0.15999999642372101</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="10">
         <v>5.4900001734495101E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="15">
+      <c r="A80" s="5">
         <v>152</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="6">
         <v>0.31999999284744202</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="7">
         <v>0.10559999942779499</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="18">
+      <c r="A81" s="8">
         <v>153</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="9">
         <v>0.50999999046325595</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="10">
         <v>0.11119999736547399</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="15">
+      <c r="A82" s="5">
         <v>156</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="6">
         <v>0.88999998569488503</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="7">
         <v>0.93730002641677801</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="18">
+      <c r="A83" s="8">
         <v>157</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="9">
         <v>0.18000000715255701</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="15">
+      <c r="A84" s="5">
         <v>158</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="6">
         <v>0.18000000715255701</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="18">
+      <c r="A85" s="8">
         <v>161</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="9">
         <v>0.259999990463256</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="10">
         <v>0.36269998550415</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="15">
+      <c r="A86" s="5">
         <v>162</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="6">
         <v>0.259999990463256</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="7">
         <v>0.36269998550415</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="18">
+      <c r="A87" s="8">
         <v>165</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="9">
         <v>0.259999990463256</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="10">
         <v>0.12600000202655701</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="15">
+      <c r="A88" s="5">
         <v>166</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="6">
         <v>0.259999990463256</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="7">
         <v>0.12600000202655701</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="18">
+      <c r="A89" s="8">
         <v>169</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="9">
         <v>0.479999989271163</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="10">
         <v>0.45210000872612</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="15">
+      <c r="A90" s="5">
         <v>170</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="6">
         <v>0.479999989271163</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="7">
         <v>0.45210000872612</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="18">
+      <c r="A91" s="8">
         <v>173</v>
       </c>
-      <c r="B91" s="19">
+      <c r="B91" s="9">
         <v>0.64999997615814198</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="10">
         <v>0.36800000071525502</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="15">
+      <c r="A92" s="5">
         <v>174</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="6">
         <v>0.64999997615814198</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="7">
         <v>0.36800000071525502</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="18">
+      <c r="A93" s="8">
         <v>177</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="9">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="10">
         <v>0.286900013685226</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="15">
+      <c r="A94" s="5">
         <v>178</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="6">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="7">
         <v>0.286900013685226</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="18">
+      <c r="A95" s="8">
         <v>181</v>
       </c>
-      <c r="B95" s="19">
+      <c r="B95" s="9">
         <v>0.81000000238418501</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="10">
         <v>0.589200019836425</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="15">
+      <c r="A96" s="5">
         <v>182</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="6">
         <v>0.81000000238418501</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="7">
         <v>0.589200019836425</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="18">
+      <c r="A97" s="8">
         <v>185</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="9">
         <v>0.81999999284744196</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="10">
         <v>0.60860002040863004</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="15">
+      <c r="A98" s="5">
         <v>186</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="6">
         <v>0.69999998807907104</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="7">
         <v>0.224999994039535</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="18">
+      <c r="A99" s="8">
         <v>187</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="9">
         <v>0.41999998688697798</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="10">
         <v>0.39440000057220398</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="15">
+      <c r="A100" s="5">
         <v>188</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="6">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="7">
         <v>0.23309999704360901</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="18">
+      <c r="A101" s="8">
         <v>189</v>
       </c>
-      <c r="B101" s="19">
+      <c r="B101" s="9">
         <v>0.25</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="10">
         <v>0.15710000693798001</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="15">
+      <c r="A102" s="5">
         <v>190</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="6">
         <v>0.58999997377395597</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="7">
         <v>0.59909999370574896</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="18">
+      <c r="A103" s="8">
         <v>191</v>
       </c>
-      <c r="B103" s="19">
+      <c r="B103" s="9">
         <v>0.46000000834464999</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C103" s="10">
         <v>0.4408999979496</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="15">
+      <c r="A104" s="5">
         <v>192</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="6">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="7">
         <v>0.29440000653266901</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="18">
+      <c r="A105" s="8">
         <v>193</v>
       </c>
-      <c r="B105" s="19">
+      <c r="B105" s="9">
         <v>0.259999990463256</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C105" s="10">
         <v>2.9899999499320901E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="15">
+      <c r="A106" s="5">
         <v>194</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="6">
         <v>0.60000002384185702</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="7">
         <v>0.772400021553039</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="18">
+      <c r="A107" s="8">
         <v>195</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B107" s="9">
         <v>0.91000002622604304</v>
       </c>
-      <c r="C107" s="20">
+      <c r="C107" s="10">
         <v>0.85130000114440896</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="15">
+      <c r="A108" s="5">
         <v>197</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="6">
         <v>0.43999999761581399</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="7">
         <v>0.41999998688697798</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="18">
+      <c r="A109" s="8">
         <v>198</v>
       </c>
-      <c r="B109" s="19">
+      <c r="B109" s="9">
         <v>0.70999997854232699</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C109" s="10">
         <v>0.504400014877319</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="15">
+      <c r="A110" s="5">
         <v>199</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="6">
         <v>0.20000000298023199</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="18">
+      <c r="A111" s="8">
         <v>200</v>
       </c>
-      <c r="B111" s="19">
+      <c r="B111" s="9">
         <v>0.20000000298023199</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="10">
         <v>0.14920000731944999</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="15">
+      <c r="A112" s="5">
         <v>201</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="6">
         <v>0.81000000238418501</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="7">
         <v>0.520099997520446</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="18">
+      <c r="A113" s="8">
         <v>202</v>
       </c>
-      <c r="B113" s="19">
+      <c r="B113" s="9">
         <v>0.66000002622604304</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C113" s="10">
         <v>0.60100001096725397</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="15">
+      <c r="A114" s="5">
         <v>203</v>
       </c>
-      <c r="B114" s="16">
+      <c r="B114" s="6">
         <v>0.85000002384185702</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="7">
         <v>0.47940000891685403</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="18">
+      <c r="A115" s="8">
         <v>204</v>
       </c>
-      <c r="B115" s="19">
+      <c r="B115" s="9">
         <v>0.46999999880790699</v>
       </c>
-      <c r="C115" s="20">
+      <c r="C115" s="10">
         <v>0.36379998922348</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="15">
+      <c r="A116" s="5">
         <v>205</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="6">
         <v>0.46999999880790699</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="7">
         <v>0.36379998922348</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="18">
+      <c r="A117" s="8">
         <v>208</v>
       </c>
-      <c r="B117" s="19">
+      <c r="B117" s="9">
         <v>0.37000000476837103</v>
       </c>
-      <c r="C117" s="20">
+      <c r="C117" s="10">
         <v>0.136099994182586</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="15">
+      <c r="A118" s="5">
         <v>209</v>
       </c>
-      <c r="B118" s="16">
+      <c r="B118" s="6">
         <v>0.37000000476837103</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="7">
         <v>0.136099994182586</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="18">
+      <c r="A119" s="8">
         <v>216</v>
       </c>
-      <c r="B119" s="19">
+      <c r="B119" s="9">
         <v>0.50999999046325595</v>
       </c>
-      <c r="C119" s="20">
+      <c r="C119" s="10">
         <v>0.31369999051094</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="15">
+      <c r="A120" s="5">
         <v>217</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="6">
         <v>0.50999999046325595</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="7">
         <v>0.31369999051094</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="18">
+      <c r="A121" s="8">
         <v>224</v>
       </c>
-      <c r="B121" s="19">
+      <c r="B121" s="9">
         <v>0.43999999761581399</v>
       </c>
-      <c r="C121" s="20">
+      <c r="C121" s="10">
         <v>0.35670000314712502</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="15">
+      <c r="A122" s="5">
         <v>225</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="6">
         <v>0.43999999761581399</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="7">
         <v>0.35670000314712502</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="18">
+      <c r="A123" s="8">
         <v>228</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B123" s="9">
         <v>0.40999999642372098</v>
       </c>
-      <c r="C123" s="20">
+      <c r="C123" s="10">
         <v>0.42519998550415</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="15">
+      <c r="A124" s="5">
         <v>229</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="6">
         <v>0.40999999642372098</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="7">
         <v>0.42519998550415</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="18">
+      <c r="A125" s="8">
         <v>232</v>
       </c>
-      <c r="B125" s="19">
+      <c r="B125" s="9">
         <v>0.56999999284744196</v>
       </c>
-      <c r="C125" s="20">
+      <c r="C125" s="10">
         <v>0.404000014066696</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="15">
+      <c r="A126" s="5">
         <v>233</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="6">
         <v>0.56999999284744196</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="7">
         <v>0.404000014066696</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="18">
+      <c r="A127" s="8">
         <v>236</v>
       </c>
-      <c r="B127" s="19">
+      <c r="B127" s="9">
         <v>0.66000002622604304</v>
       </c>
-      <c r="C127" s="20">
+      <c r="C127" s="10">
         <v>0.73930001258850098</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="15">
+      <c r="A128" s="5">
         <v>237</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="6">
         <v>0.66000002622604304</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="7">
         <v>0.73930001258850098</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="18">
+      <c r="A129" s="8">
         <v>240</v>
       </c>
-      <c r="B129" s="19">
+      <c r="B129" s="9">
         <v>0.62000000476837103</v>
       </c>
-      <c r="C129" s="20">
+      <c r="C129" s="10">
         <v>0.50980001688003496</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="15">
+      <c r="A130" s="5">
         <v>241</v>
       </c>
-      <c r="B130" s="16">
+      <c r="B130" s="6">
         <v>0.43999999761581399</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="7">
         <v>0.57039999961853005</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="18">
+      <c r="A131" s="8">
         <v>242</v>
       </c>
-      <c r="B131" s="19">
+      <c r="B131" s="9">
         <v>0.33000001311302102</v>
       </c>
-      <c r="C131" s="20">
+      <c r="C131" s="10">
         <v>7.5599998235702501E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="15">
+      <c r="A132" s="5">
         <v>243</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="6">
         <v>0.80000001192092896</v>
       </c>
-      <c r="C132" s="17">
+      <c r="C132" s="7">
         <v>0.49439999461174</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="18">
+      <c r="A133" s="8">
         <v>245</v>
       </c>
-      <c r="B133" s="19">
+      <c r="B133" s="9">
         <v>0.20000000298023199</v>
       </c>
-      <c r="C133" s="20">
+      <c r="C133" s="10">
         <v>3.6899998784065198E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="15">
+      <c r="A134" s="5">
         <v>246</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="6">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C134" s="17">
+      <c r="C134" s="7">
         <v>0.627200007438659</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="18">
+      <c r="A135" s="8">
         <v>247</v>
       </c>
-      <c r="B135" s="19">
+      <c r="B135" s="9">
         <v>0.55000001192092896</v>
       </c>
-      <c r="C135" s="20">
+      <c r="C135" s="10">
         <v>0.42620000243186901</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="15">
+      <c r="A136" s="5">
         <v>248</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B136" s="6">
         <v>0.38999998569488498</v>
       </c>
-      <c r="C136" s="17">
+      <c r="C136" s="7">
         <v>0.23139999806880901</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="18">
+      <c r="A137" s="8">
         <v>250</v>
       </c>
-      <c r="B137" s="19">
+      <c r="B137" s="9">
         <v>0.37000000476837103</v>
       </c>
-      <c r="C137" s="20">
+      <c r="C137" s="10">
         <v>0.40810000896453802</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="15">
+      <c r="A138" s="5">
         <v>251</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="6">
         <v>0.56000000238418501</v>
       </c>
-      <c r="C138" s="17">
+      <c r="C138" s="7">
         <v>0.104599997401237</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="18">
+      <c r="A139" s="8">
         <v>252</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="20">
+      <c r="B139" s="9"/>
+      <c r="C139" s="10">
         <v>0.49430000782012901</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="15">
+      <c r="A140" s="5">
         <v>253</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="6">
         <v>0.68999999761581399</v>
       </c>
-      <c r="C140" s="17">
+      <c r="C140" s="7">
         <v>0.58960002660751298</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="18">
+      <c r="A141" s="8">
         <v>254</v>
       </c>
-      <c r="B141" s="19">
+      <c r="B141" s="9">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C141" s="20">
+      <c r="C141" s="10">
         <v>6.4800001680850899E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="15">
+      <c r="A142" s="5">
         <v>255</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="6">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C142" s="17">
+      <c r="C142" s="7">
         <v>6.4800001680850899E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="18">
+      <c r="A143" s="8">
         <v>258</v>
       </c>
-      <c r="B143" s="19">
+      <c r="B143" s="9">
         <v>0.76999998092651301</v>
       </c>
-      <c r="C143" s="20">
+      <c r="C143" s="10">
         <v>0.21080000698566401</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="15">
+      <c r="A144" s="5">
         <v>259</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B144" s="6">
         <v>0.76999998092651301</v>
       </c>
-      <c r="C144" s="17">
+      <c r="C144" s="7">
         <v>0.21080000698566401</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="18">
+      <c r="A145" s="8">
         <v>262</v>
       </c>
-      <c r="B145" s="19">
+      <c r="B145" s="9">
         <v>0.61000001430511397</v>
       </c>
-      <c r="C145" s="20">
+      <c r="C145" s="10">
         <v>0.65990000963211004</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="15">
+      <c r="A146" s="5">
         <v>263</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="6">
         <v>0.270000010728836</v>
       </c>
-      <c r="C146" s="17">
+      <c r="C146" s="7">
         <v>0.10840000212192499</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="18">
+      <c r="A147" s="8">
         <v>264</v>
       </c>
-      <c r="B147" s="19">
+      <c r="B147" s="9">
         <v>0.34000000357627802</v>
       </c>
-      <c r="C147" s="20">
+      <c r="C147" s="10">
         <v>0.21529999375343301</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="15">
+      <c r="A148" s="5">
         <v>265</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="6">
         <v>0.40999999642372098</v>
       </c>
-      <c r="C148" s="17">
+      <c r="C148" s="7">
         <v>0.50819998979568404</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="18">
+      <c r="A149" s="8">
         <v>266</v>
       </c>
-      <c r="B149" s="19">
+      <c r="B149" s="9">
         <v>0.68000000715255704</v>
       </c>
-      <c r="C149" s="20">
+      <c r="C149" s="10">
         <v>0.82160001993179299</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="15">
+      <c r="A150" s="5">
         <v>268</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="6">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="7">
         <v>0.26719999313354398</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="18">
+      <c r="A151" s="8">
         <v>269</v>
       </c>
-      <c r="B151" s="19">
+      <c r="B151" s="9">
         <v>0.34000000357627802</v>
       </c>
-      <c r="C151" s="20">
+      <c r="C151" s="10">
         <v>3.1800001859664903E-2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="15">
+      <c r="A152" s="5">
         <v>270</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="6">
         <v>0.230000004172325</v>
       </c>
-      <c r="C152" s="17">
+      <c r="C152" s="7">
         <v>0.115500003099441</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="18">
+      <c r="A153" s="8">
         <v>271</v>
       </c>
-      <c r="B153" s="19">
+      <c r="B153" s="9">
         <v>0.30000001192092801</v>
       </c>
-      <c r="C153" s="20">
+      <c r="C153" s="10">
         <v>0.33889999985694802</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="15">
+      <c r="A154" s="5">
         <v>274</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B154" s="6">
         <v>0.68000000715255704</v>
       </c>
-      <c r="C154" s="17">
+      <c r="C154" s="7">
         <v>0.38530001044273299</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="18">
+      <c r="A155" s="8">
         <v>277</v>
       </c>
-      <c r="B155" s="19">
+      <c r="B155" s="9">
         <v>0.64999997615814198</v>
       </c>
-      <c r="C155" s="20">
+      <c r="C155" s="10">
         <v>0.51660001277923495</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="15">
+      <c r="A156" s="5">
         <v>278</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="6">
         <v>0.46000000834464999</v>
       </c>
-      <c r="C156" s="17">
+      <c r="C156" s="7">
         <v>0.33079999685287398</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="18">
+      <c r="A157" s="8">
         <v>279</v>
       </c>
-      <c r="B157" s="19">
+      <c r="B157" s="9">
         <v>0.46000000834464999</v>
       </c>
-      <c r="C157" s="20">
+      <c r="C157" s="10">
         <v>0.45890000462531999</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="15">
+      <c r="A158" s="5">
         <v>281</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B158" s="6">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C158" s="17">
+      <c r="C158" s="7">
         <v>2.7599999681115098E-2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="18">
+      <c r="A159" s="8">
         <v>282</v>
       </c>
-      <c r="B159" s="19">
+      <c r="B159" s="9">
         <v>0.30000001192092801</v>
       </c>
-      <c r="C159" s="20">
+      <c r="C159" s="10">
         <v>0.14270000159740401</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="15">
+      <c r="A160" s="5">
         <v>283</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B160" s="6">
         <v>0.86000001430511397</v>
       </c>
-      <c r="C160" s="17">
+      <c r="C160" s="7">
         <v>0.38960000872612</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="18">
+      <c r="A161" s="8">
         <v>285</v>
       </c>
-      <c r="B161" s="19">
+      <c r="B161" s="9">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C161" s="20">
+      <c r="C161" s="10">
         <v>0.13490000367164601</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="15">
+      <c r="A162" s="5">
         <v>286</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162" s="6">
         <v>0.20999999344348899</v>
       </c>
-      <c r="C162" s="17">
+      <c r="C162" s="7">
         <v>9.2299997806549003E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="18">
+      <c r="A163" s="8">
         <v>287</v>
       </c>
-      <c r="B163" s="19">
+      <c r="B163" s="9">
         <v>0.38999998569488498</v>
       </c>
-      <c r="C163" s="20">
+      <c r="C163" s="10">
         <v>0.242799997329711</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="15">
+      <c r="A164" s="5">
         <v>288</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164" s="6">
         <v>0.64999997615814198</v>
       </c>
-      <c r="C164" s="17">
+      <c r="C164" s="7">
         <v>0.59060001373291005</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="18">
+      <c r="A165" s="8">
         <v>289</v>
       </c>
-      <c r="B165" s="19">
+      <c r="B165" s="9">
         <v>0.479999989271163</v>
       </c>
-      <c r="C165" s="20">
+      <c r="C165" s="10">
         <v>6.8099997937679194E-2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="15">
+      <c r="A166" s="5">
         <v>290</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B166" s="6">
         <v>0.43000000715255698</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="7">
         <v>1.9999999494757501E-4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="18">
+      <c r="A167" s="8">
         <v>292</v>
       </c>
-      <c r="B167" s="19">
+      <c r="B167" s="9">
         <v>0.55000001192092896</v>
       </c>
-      <c r="C167" s="20">
+      <c r="C167" s="10">
         <v>0.59649997949600198</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="15">
+      <c r="A168" s="5">
         <v>293</v>
       </c>
-      <c r="B168" s="16">
+      <c r="B168" s="6">
         <v>0.25</v>
       </c>
-      <c r="C168" s="17">
+      <c r="C168" s="7">
         <v>7.6899997889995506E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="18">
+      <c r="A169" s="8">
         <v>294</v>
       </c>
-      <c r="B169" s="19">
+      <c r="B169" s="9">
         <v>0.239999994635581</v>
       </c>
-      <c r="C169" s="20">
+      <c r="C169" s="10">
         <v>0.10809999704360899</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="15">
+      <c r="A170" s="5">
         <v>295</v>
       </c>
-      <c r="B170" s="16">
+      <c r="B170" s="6">
         <v>0.80000001192092896</v>
       </c>
-      <c r="C170" s="17">
+      <c r="C170" s="7">
         <v>0.727699995040893</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="18">
+      <c r="A171" s="8">
         <v>297</v>
       </c>
-      <c r="B171" s="19">
+      <c r="B171" s="9">
         <v>0.730000019073486</v>
       </c>
-      <c r="C171" s="20">
+      <c r="C171" s="10">
         <v>0.60629999637603704</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="15">
+      <c r="A172" s="5">
         <v>298</v>
       </c>
-      <c r="B172" s="16">
+      <c r="B172" s="6">
         <v>0.57999998331069902</v>
       </c>
-      <c r="C172" s="17">
+      <c r="C172" s="7">
         <v>0.14769999682903201</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="18">
+      <c r="A173" s="8">
         <v>299</v>
       </c>
-      <c r="B173" s="19">
+      <c r="B173" s="9">
         <v>0.25</v>
       </c>
-      <c r="C173" s="20">
+      <c r="C173" s="10">
         <v>0.109700001776218</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="15">
+      <c r="A174" s="5">
         <v>300</v>
       </c>
-      <c r="B174" s="16">
+      <c r="B174" s="6">
         <v>0.18999999761581399</v>
       </c>
-      <c r="C174" s="17">
+      <c r="C174" s="7">
         <v>1.44999995827674E-2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="18">
+      <c r="A175" s="8">
         <v>301</v>
       </c>
-      <c r="B175" s="19">
+      <c r="B175" s="9">
         <v>0.58999997377395597</v>
       </c>
-      <c r="C175" s="20">
+      <c r="C175" s="10">
         <v>0.35289999842643699</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="15">
+      <c r="A176" s="5">
         <v>303</v>
       </c>
-      <c r="B176" s="16">
+      <c r="B176" s="6">
         <v>0.37999999523162797</v>
       </c>
-      <c r="C176" s="17">
+      <c r="C176" s="7">
         <v>0.27320000529289201</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="18">
+      <c r="A177" s="8">
         <v>304</v>
       </c>
-      <c r="B177" s="19">
+      <c r="B177" s="9">
         <v>0.28000000119209201</v>
       </c>
-      <c r="C177" s="20">
+      <c r="C177" s="10">
         <v>0.24300000071525499</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="15">
+      <c r="A178" s="5">
         <v>305</v>
       </c>
-      <c r="B178" s="16">
+      <c r="B178" s="6">
         <v>0.55000001192092896</v>
       </c>
-      <c r="C178" s="17">
+      <c r="C178" s="7">
         <v>0.13699999451637199</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="18">
+      <c r="A179" s="8">
         <v>308</v>
       </c>
-      <c r="B179" s="19">
+      <c r="B179" s="9">
         <v>0.5</v>
       </c>
-      <c r="C179" s="20">
+      <c r="C179" s="10">
         <v>0.38769999146461398</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="15">
+      <c r="A180" s="5">
         <v>309</v>
       </c>
-      <c r="B180" s="16">
+      <c r="B180" s="6">
         <v>0.31999999284744202</v>
       </c>
-      <c r="C180" s="17">
+      <c r="C180" s="7">
         <v>0.32510000467300398</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="18">
+      <c r="A181" s="8">
         <v>311</v>
       </c>
-      <c r="B181" s="19">
+      <c r="B181" s="9">
         <v>0.20000000298023199</v>
       </c>
-      <c r="C181" s="20">
+      <c r="C181" s="10">
         <v>3.2400000840425401E-2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="15">
+      <c r="A182" s="5">
         <v>313</v>
       </c>
-      <c r="B182" s="16">
+      <c r="B182" s="6">
         <v>0.20000000298023199</v>
       </c>
-      <c r="C182" s="17">
+      <c r="C182" s="7">
         <v>4.1799999773502301E-2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="18">
+      <c r="A183" s="8">
         <v>314</v>
       </c>
-      <c r="B183" s="19">
+      <c r="B183" s="9">
         <v>0.46000000834464999</v>
       </c>
-      <c r="C183" s="20">
+      <c r="C183" s="10">
         <v>0.416299998760223</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="15">
+      <c r="A184" s="5">
         <v>315</v>
       </c>
-      <c r="B184" s="16">
+      <c r="B184" s="6">
         <v>0.57999998331069902</v>
       </c>
-      <c r="C184" s="17">
+      <c r="C184" s="7">
         <v>0.64039999246597201</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="18">
+      <c r="A185" s="8">
         <v>316</v>
       </c>
-      <c r="B185" s="19">
+      <c r="B185" s="9">
         <v>0.79000002145767201</v>
       </c>
-      <c r="C185" s="20">
+      <c r="C185" s="10">
         <v>0.34439998865127502</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="15">
+      <c r="A186" s="5">
         <v>317</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B186" s="6">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C186" s="17">
+      <c r="C186" s="7">
         <v>0.41130000352859403</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="18">
+      <c r="A187" s="8">
         <v>318</v>
       </c>
-      <c r="B187" s="19">
+      <c r="B187" s="9">
         <v>0.37999999523162797</v>
       </c>
-      <c r="C187" s="20">
+      <c r="C187" s="10">
         <v>0.33090001344680697</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="15">
+      <c r="A188" s="5">
         <v>319</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B188" s="6">
         <v>0.40999999642372098</v>
       </c>
-      <c r="C188" s="17">
+      <c r="C188" s="7">
         <v>6.2399998307227998E-2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="18">
+      <c r="A189" s="8">
         <v>320</v>
       </c>
-      <c r="B189" s="19">
+      <c r="B189" s="9">
         <v>0.66000002622604304</v>
       </c>
-      <c r="C189" s="20">
+      <c r="C189" s="10">
         <v>0.407400012016296</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="15">
+      <c r="A190" s="5">
         <v>321</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190" s="6">
         <v>0.70999997854232699</v>
       </c>
-      <c r="C190" s="17">
+      <c r="C190" s="7">
         <v>0.37329998612403797</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="18">
+      <c r="A191" s="8">
         <v>322</v>
       </c>
-      <c r="B191" s="19">
+      <c r="B191" s="9">
         <v>0.46999999880790699</v>
       </c>
-      <c r="C191" s="20">
+      <c r="C191" s="10">
         <v>0.113899998366832</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="15">
+      <c r="A192" s="5">
         <v>323</v>
       </c>
-      <c r="B192" s="16">
+      <c r="B192" s="6">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C192" s="17">
+      <c r="C192" s="7">
         <v>0.40340000391006398</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="18">
+      <c r="A193" s="8">
         <v>325</v>
       </c>
-      <c r="B193" s="19">
+      <c r="B193" s="9">
         <v>0.18000000715255701</v>
       </c>
-      <c r="C193" s="20">
+      <c r="C193" s="10">
         <v>0.166899994015693</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="15">
+      <c r="A194" s="5">
         <v>327</v>
       </c>
-      <c r="B194" s="16">
+      <c r="B194" s="6">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C194" s="17">
+      <c r="C194" s="7">
         <v>0.12630000710487299</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="18">
+      <c r="A195" s="8">
         <v>328</v>
       </c>
-      <c r="B195" s="19">
+      <c r="B195" s="9">
         <v>0.41999998688697798</v>
       </c>
-      <c r="C195" s="20">
+      <c r="C195" s="10">
         <v>0.37189999222755399</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="15">
+      <c r="A196" s="5">
         <v>329</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B196" s="6">
         <v>0.34999999403953502</v>
       </c>
-      <c r="C196" s="17">
+      <c r="C196" s="7">
         <v>0.26910001039504999</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="18">
+      <c r="A197" s="8">
         <v>330</v>
       </c>
-      <c r="B197" s="19">
+      <c r="B197" s="9">
         <v>0.67000001668929998</v>
       </c>
-      <c r="C197" s="20">
+      <c r="C197" s="10">
         <v>9.3599997460842105E-2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="15">
+      <c r="A198" s="5">
         <v>331</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B198" s="6">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C198" s="17">
+      <c r="C198" s="7">
         <v>3.6899998784065198E-2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="18">
+      <c r="A199" s="8">
         <v>333</v>
       </c>
-      <c r="B199" s="19">
+      <c r="B199" s="9">
         <v>0.31999999284744202</v>
       </c>
-      <c r="C199" s="20">
+      <c r="C199" s="10">
         <v>0.121399998664855</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="15">
+      <c r="A200" s="5">
         <v>334</v>
       </c>
-      <c r="B200" s="16">
+      <c r="B200" s="6">
         <v>0.30000001192092801</v>
       </c>
-      <c r="C200" s="17">
+      <c r="C200" s="7">
         <v>0.29820001125335599</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="18">
+      <c r="A201" s="8">
         <v>335</v>
       </c>
-      <c r="B201" s="19">
+      <c r="B201" s="9">
         <v>0.43000000715255698</v>
       </c>
-      <c r="C201" s="20">
+      <c r="C201" s="10">
         <v>0.13359999656677199</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="15">
+      <c r="A202" s="5">
         <v>337</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B202" s="6">
         <v>0.25</v>
       </c>
-      <c r="C202" s="17">
+      <c r="C202" s="7">
         <v>0.16769999265670699</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="18">
+      <c r="A203" s="8">
         <v>339</v>
       </c>
-      <c r="B203" s="19">
+      <c r="B203" s="9">
         <v>0.20000000298023199</v>
       </c>
-      <c r="C203" s="20">
+      <c r="C203" s="10">
         <v>3.46000008285045E-2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="15">
+      <c r="A204" s="5">
         <v>340</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B204" s="6">
         <v>0.55000001192092896</v>
       </c>
-      <c r="C204" s="17">
+      <c r="C204" s="7">
         <v>0.299199998378753</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="18">
+      <c r="A205" s="8">
         <v>341</v>
       </c>
-      <c r="B205" s="19">
+      <c r="B205" s="9">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C205" s="20">
+      <c r="C205" s="10">
         <v>0.24590000510215701</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="15">
+      <c r="A206" s="5">
         <v>342</v>
       </c>
-      <c r="B206" s="16">
+      <c r="B206" s="6">
         <v>0.68999999761581399</v>
       </c>
-      <c r="C206" s="17">
+      <c r="C206" s="7">
         <v>0.23700000345706901</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="18">
+      <c r="A207" s="8">
         <v>343</v>
       </c>
-      <c r="B207" s="19">
+      <c r="B207" s="9">
         <v>0.25</v>
       </c>
-      <c r="C207" s="20">
+      <c r="C207" s="10">
         <v>4.1799999773502301E-2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="15">
+      <c r="A208" s="5">
         <v>344</v>
       </c>
-      <c r="B208" s="16">
+      <c r="B208" s="6">
         <v>0.37000000476837103</v>
       </c>
-      <c r="C208" s="17">
+      <c r="C208" s="7">
         <v>0.23860000073909701</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="18">
+      <c r="A209" s="8">
         <v>346</v>
       </c>
-      <c r="B209" s="19">
+      <c r="B209" s="9">
         <v>0.41999998688697798</v>
       </c>
-      <c r="C209" s="20">
+      <c r="C209" s="10">
         <v>0.405200004577636</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="15">
+      <c r="A210" s="5">
         <v>348</v>
       </c>
-      <c r="B210" s="16">
+      <c r="B210" s="6">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C210" s="17">
+      <c r="C210" s="7">
         <v>0.45449998974800099</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="18">
+      <c r="A211" s="8">
         <v>349</v>
       </c>
-      <c r="B211" s="19">
+      <c r="B211" s="9">
         <v>0.30000001192092801</v>
       </c>
-      <c r="C211" s="20">
+      <c r="C211" s="10">
         <v>0.25490000844001698</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="15">
+      <c r="A212" s="5">
         <v>350</v>
       </c>
-      <c r="B212" s="16">
+      <c r="B212" s="6">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C212" s="17">
+      <c r="C212" s="7">
         <v>0.50319999456405595</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="18">
+      <c r="A213" s="8">
         <v>351</v>
       </c>
-      <c r="B213" s="19">
+      <c r="B213" s="9">
         <v>0.46999999880790699</v>
       </c>
-      <c r="C213" s="20">
+      <c r="C213" s="10">
         <v>3.9999998989515001E-4</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="15">
+      <c r="A214" s="5">
         <v>352</v>
       </c>
-      <c r="B214" s="16">
+      <c r="B214" s="6">
         <v>0.43000000715255698</v>
       </c>
-      <c r="C214" s="17">
+      <c r="C214" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="18">
+      <c r="A215" s="8">
         <v>353</v>
       </c>
-      <c r="B215" s="19">
+      <c r="B215" s="9">
         <v>0.51999998092651301</v>
       </c>
-      <c r="C215" s="20">
+      <c r="C215" s="10">
         <v>0.41830000281333901</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="15">
+      <c r="A216" s="5">
         <v>355</v>
       </c>
-      <c r="B216" s="16">
+      <c r="B216" s="6">
         <v>0.95999997854232699</v>
       </c>
-      <c r="C216" s="17">
+      <c r="C216" s="7">
         <v>6.99999975040555E-4</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="18">
+      <c r="A217" s="8">
         <v>356</v>
       </c>
-      <c r="B217" s="19">
+      <c r="B217" s="9">
         <v>0.56999999284744196</v>
       </c>
-      <c r="C217" s="20">
+      <c r="C217" s="10">
         <v>0.31959998607635498</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="15">
+      <c r="A218" s="5">
         <v>357</v>
       </c>
-      <c r="B218" s="16">
+      <c r="B218" s="6">
         <v>0.51999998092651301</v>
       </c>
-      <c r="C218" s="17">
+      <c r="C218" s="7">
         <v>0.185900002717971</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="18">
+      <c r="A219" s="8">
         <v>358</v>
       </c>
-      <c r="B219" s="19">
+      <c r="B219" s="9">
         <v>0.46000000834464999</v>
       </c>
-      <c r="C219" s="20">
+      <c r="C219" s="10">
         <v>0.25920000672340299</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="15">
+      <c r="A220" s="5">
         <v>359</v>
       </c>
-      <c r="B220" s="16">
+      <c r="B220" s="6">
         <v>0.66000002622604304</v>
       </c>
-      <c r="C220" s="17">
+      <c r="C220" s="7">
         <v>0.524600028991699</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="18">
+      <c r="A221" s="8">
         <v>360</v>
       </c>
-      <c r="B221" s="19"/>
-      <c r="C221" s="20">
+      <c r="B221" s="9"/>
+      <c r="C221" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="15">
+      <c r="A222" s="5">
         <v>361</v>
       </c>
-      <c r="B222" s="16">
+      <c r="B222" s="6">
         <v>0.479999989271163</v>
       </c>
-      <c r="C222" s="17">
+      <c r="C222" s="7">
         <v>0.35080000758170998</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="18">
+      <c r="A223" s="8">
         <v>362</v>
       </c>
-      <c r="B223" s="19">
+      <c r="B223" s="9">
         <v>0.37000000476837103</v>
       </c>
-      <c r="C223" s="20">
+      <c r="C223" s="10">
         <v>0.34990000724792403</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="15">
+      <c r="A224" s="5">
         <v>363</v>
       </c>
-      <c r="B224" s="16">
+      <c r="B224" s="6">
         <v>0.75999999046325595</v>
       </c>
-      <c r="C224" s="17">
+      <c r="C224" s="7">
         <v>0.258899986743927</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="18">
+      <c r="A225" s="8">
         <v>365</v>
       </c>
-      <c r="B225" s="19">
+      <c r="B225" s="9">
         <v>9.0000003576278603E-2</v>
       </c>
-      <c r="C225" s="20">
+      <c r="C225" s="10">
         <v>1.35000003501772E-2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="15">
+      <c r="A226" s="5">
         <v>366</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="6">
         <v>0.82999998331069902</v>
       </c>
-      <c r="C226" s="17">
+      <c r="C226" s="7">
         <v>0.62180000543594305</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="18">
+      <c r="A227" s="8">
         <v>367</v>
       </c>
-      <c r="B227" s="19">
+      <c r="B227" s="9">
         <v>0.31999999284744202</v>
       </c>
-      <c r="C227" s="20">
+      <c r="C227" s="10">
         <v>0.13040000200271601</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="15">
+      <c r="A228" s="5">
         <v>368</v>
       </c>
-      <c r="B228" s="16">
+      <c r="B228" s="6">
         <v>0.40999999642372098</v>
       </c>
-      <c r="C228" s="17">
+      <c r="C228" s="7">
         <v>0.55570000410079901</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="18">
+      <c r="A229" s="8">
         <v>369</v>
       </c>
-      <c r="B229" s="19">
+      <c r="B229" s="9">
         <v>0.479999989271163</v>
       </c>
-      <c r="C229" s="20">
+      <c r="C229" s="10">
         <v>0.49390000104904103</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="15">
+      <c r="A230" s="5">
         <v>370</v>
       </c>
-      <c r="B230" s="16">
+      <c r="B230" s="6">
         <v>0.34000000357627802</v>
       </c>
-      <c r="C230" s="17">
+      <c r="C230" s="7">
         <v>0.35519999265670699</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="18">
+      <c r="A231" s="8">
         <v>371</v>
       </c>
-      <c r="B231" s="19">
+      <c r="B231" s="9">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C231" s="20">
+      <c r="C231" s="10">
         <v>0.19320000708103099</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="15">
+      <c r="A232" s="5">
         <v>372</v>
       </c>
-      <c r="B232" s="16">
+      <c r="B232" s="6">
         <v>0.46000000834464999</v>
       </c>
-      <c r="C232" s="17">
+      <c r="C232" s="7">
         <v>0.28060001134872398</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="18">
+      <c r="A233" s="8">
         <v>373</v>
       </c>
-      <c r="B233" s="19">
+      <c r="B233" s="9">
         <v>0.34999999403953502</v>
       </c>
-      <c r="C233" s="20">
+      <c r="C233" s="10">
         <v>9.4400003552436801E-2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="15">
+      <c r="A234" s="5">
         <v>374</v>
       </c>
-      <c r="B234" s="16">
+      <c r="B234" s="6">
         <v>0.479999989271163</v>
       </c>
-      <c r="C234" s="17">
+      <c r="C234" s="7">
         <v>0.30070000886917098</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="18">
+      <c r="A235" s="8">
         <v>375</v>
       </c>
-      <c r="B235" s="19"/>
-      <c r="C235" s="20">
+      <c r="B235" s="9"/>
+      <c r="C235" s="10">
         <v>6.76999986171722E-2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="15">
+      <c r="A236" s="5">
         <v>379</v>
       </c>
-      <c r="B236" s="16">
+      <c r="B236" s="6">
         <v>0.68000000715255704</v>
       </c>
-      <c r="C236" s="17">
+      <c r="C236" s="7">
         <v>0.447600007057189</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="18">
+      <c r="A237" s="8">
         <v>380</v>
       </c>
-      <c r="B237" s="19">
+      <c r="B237" s="9">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C237" s="20">
+      <c r="C237" s="10">
         <v>0.414099991321563</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="15">
+      <c r="A238" s="5">
         <v>381</v>
       </c>
-      <c r="B238" s="16">
+      <c r="B238" s="6">
         <v>0.40000000596046398</v>
       </c>
-      <c r="C238" s="17">
+      <c r="C238" s="7">
         <v>0.18619999289512601</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="18">
+      <c r="A239" s="8">
         <v>382</v>
       </c>
-      <c r="B239" s="19">
+      <c r="B239" s="9">
         <v>0.21999999880790699</v>
       </c>
-      <c r="C239" s="20">
+      <c r="C239" s="10">
         <v>1.14000001922249E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="15">
+      <c r="A240" s="5">
         <v>383</v>
       </c>
-      <c r="B240" s="16">
+      <c r="B240" s="6">
         <v>0.34000000357627802</v>
       </c>
-      <c r="C240" s="17">
+      <c r="C240" s="7">
         <v>0.19709999859332999</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="18">
+      <c r="A241" s="8">
         <v>384</v>
       </c>
-      <c r="B241" s="19">
+      <c r="B241" s="9">
         <v>0.61000001430511397</v>
       </c>
-      <c r="C241" s="20">
+      <c r="C241" s="10">
         <v>0.68680000305175704</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="15">
+      <c r="A242" s="5">
         <v>385</v>
       </c>
-      <c r="B242" s="16">
+      <c r="B242" s="6">
         <v>0.31999999284744202</v>
       </c>
-      <c r="C242" s="17">
+      <c r="C242" s="7">
         <v>0.197500005364418</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="18">
+      <c r="A243" s="8">
         <v>388</v>
       </c>
-      <c r="B243" s="19">
+      <c r="B243" s="9">
         <v>0.76999998092651301</v>
       </c>
-      <c r="C243" s="20">
+      <c r="C243" s="10">
         <v>0.43110001087188698</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="15">
+      <c r="A244" s="5">
         <v>389</v>
       </c>
-      <c r="B244" s="16">
+      <c r="B244" s="6">
         <v>0.17000000178813901</v>
       </c>
-      <c r="C244" s="17">
+      <c r="C244" s="7">
         <v>4.3099999427795403E-2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="18">
+      <c r="A245" s="8">
         <v>390</v>
       </c>
-      <c r="B245" s="19">
+      <c r="B245" s="9">
         <v>0.479999989271163</v>
       </c>
-      <c r="C245" s="20">
+      <c r="C245" s="10">
         <v>0.667400002479553</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="15">
+      <c r="A246" s="5">
         <v>391</v>
       </c>
-      <c r="B246" s="16">
+      <c r="B246" s="6">
         <v>0.5</v>
       </c>
-      <c r="C246" s="17">
+      <c r="C246" s="7">
         <v>0.490999996662139</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="18">
+      <c r="A247" s="8">
         <v>392</v>
       </c>
-      <c r="B247" s="19">
+      <c r="B247" s="9">
         <v>0.68999999761581399</v>
       </c>
-      <c r="C247" s="20">
+      <c r="C247" s="10">
         <v>0.59539997577667203</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="15">
+      <c r="A248" s="5">
         <v>393</v>
       </c>
-      <c r="B248" s="16">
+      <c r="B248" s="6">
         <v>0.81999999284744196</v>
       </c>
-      <c r="C248" s="17">
+      <c r="C248" s="7">
         <v>0.62769997119903498</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="18">
+      <c r="A249" s="8">
         <v>396</v>
       </c>
-      <c r="B249" s="19">
+      <c r="B249" s="9">
         <v>0.66000002622604304</v>
       </c>
-      <c r="C249" s="20">
+      <c r="C249" s="10">
         <v>0.65579998493194502</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="15">
+      <c r="A250" s="5">
         <v>397</v>
       </c>
-      <c r="B250" s="16">
+      <c r="B250" s="6">
         <v>0.55000001192092896</v>
       </c>
-      <c r="C250" s="17">
+      <c r="C250" s="7">
         <v>0.65450000762939398</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="18">
+      <c r="A251" s="8">
         <v>399</v>
       </c>
-      <c r="B251" s="19">
+      <c r="B251" s="9">
         <v>0.230000004172325</v>
       </c>
-      <c r="C251" s="20">
+      <c r="C251" s="10">
         <v>0.127200007438659</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="15">
+      <c r="A252" s="5">
         <v>400</v>
       </c>
-      <c r="B252" s="16">
+      <c r="B252" s="6">
         <v>0.20999999344348899</v>
       </c>
-      <c r="C252" s="17">
+      <c r="C252" s="7">
         <v>3.9999998989515001E-4</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="18">
+      <c r="A253" s="8">
         <v>401</v>
       </c>
-      <c r="B253" s="19"/>
-      <c r="C253" s="20">
+      <c r="B253" s="9"/>
+      <c r="C253" s="10">
         <v>1.94000005722045E-2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="15">
+      <c r="A254" s="5">
         <v>402</v>
       </c>
-      <c r="B254" s="16">
+      <c r="B254" s="6">
         <v>0.230000004172325</v>
       </c>
-      <c r="C254" s="17">
+      <c r="C254" s="7">
         <v>7.5999997556209495E-2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="18">
+      <c r="A255" s="8">
         <v>404</v>
       </c>
-      <c r="B255" s="19">
+      <c r="B255" s="9">
         <v>0.61000001430511397</v>
       </c>
-      <c r="C255" s="20">
+      <c r="C255" s="10">
         <v>0.48359999060630798</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="15">
+      <c r="A256" s="5">
         <v>405</v>
       </c>
-      <c r="B256" s="16">
+      <c r="B256" s="6">
         <v>0.5</v>
       </c>
-      <c r="C256" s="17">
+      <c r="C256" s="7">
         <v>0.38049998879432601</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="18">
+      <c r="A257" s="8">
         <v>406</v>
       </c>
-      <c r="B257" s="19">
+      <c r="B257" s="9">
         <v>0.50999999046325595</v>
       </c>
-      <c r="C257" s="20">
+      <c r="C257" s="10">
         <v>0.154499992728233</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="15">
+      <c r="A258" s="5">
         <v>408</v>
       </c>
-      <c r="B258" s="16">
+      <c r="B258" s="6">
         <v>0.5</v>
       </c>
-      <c r="C258" s="17">
+      <c r="C258" s="7">
         <v>0.54430001974105802</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="18">
+      <c r="A259" s="8">
         <v>411</v>
       </c>
-      <c r="B259" s="19">
+      <c r="B259" s="9">
         <v>0.36000001430511402</v>
       </c>
-      <c r="C259" s="20">
+      <c r="C259" s="10">
         <v>0.54199999570846502</v>
       </c>
     </row>
@@ -27861,535 +27845,535 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="5">
         <v>8</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="6">
         <v>0.76999998092651301</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="7">
         <v>0.390700012445449</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="8">
         <v>9</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="9">
         <v>0.76999998092651301</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="10">
         <v>0.390700012445449</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="5">
         <v>29</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="6">
         <v>0.58999997377395597</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="7">
         <v>0.62699997425079301</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="8">
         <v>30</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="9">
         <v>0.58999997377395597</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="10">
         <v>0.62699997425079301</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="5">
         <v>39</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="6">
         <v>0.54000002145767201</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>0.54220002889633101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="8">
         <v>57</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="9">
         <v>0.270000010728836</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="10">
         <v>0.27880001068115201</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="5">
         <v>58</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="6">
         <v>0.270000010728836</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="7">
         <v>0.27880001068115201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="8">
         <v>61</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="9">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="10">
         <v>0.237100005149841</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="5">
         <v>62</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="6">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="7">
         <v>0.237100005149841</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="8">
         <v>70</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="9">
         <v>0.56999999284744196</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="10">
         <v>0.53149998188018799</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="5">
         <v>101</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="8">
         <v>111</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="9">
         <v>0.79000002145767201</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="10">
         <v>0.66130000352859497</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="5">
         <v>154</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="6">
         <v>0.61000001430511397</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="7">
         <v>0.46750000119209201</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="8">
         <v>155</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="9">
         <v>0.57999998331069902</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="10">
         <v>0.42699998617172202</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="5">
         <v>196</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="6">
         <v>0.46999999880790699</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="7">
         <v>0.448599994182586</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="8">
         <v>212</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="9">
         <v>0.5</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="10">
         <v>0.49799999594688399</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="5">
         <v>213</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="6">
         <v>0.5</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="7">
         <v>0.49799999594688399</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="8">
         <v>220</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="9">
         <v>0.270000010728836</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="10">
         <v>0.32780000567436202</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="5">
         <v>221</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="6">
         <v>0.270000010728836</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="7">
         <v>0.32780000567436202</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="8">
         <v>244</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="9">
         <v>0.28999999165534901</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="10">
         <v>0.195899993181228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="5">
         <v>267</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="6">
         <v>0.63999998569488503</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="7">
         <v>0.48080000281333901</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="8">
         <v>272</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="9">
         <v>0.66000002622604304</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="10">
         <v>0.528999984264373</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="5">
         <v>273</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="6">
         <v>0.56000000238418501</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="7">
         <v>0.53949999809265103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="8">
         <v>275</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="9">
         <v>0.46000000834464999</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="15">
         <v>9.9999997473787503E-5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="5">
         <v>276</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="6">
         <v>0.25</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="7">
         <v>3.1700000166892998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="8">
         <v>284</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="9">
         <v>0.40999999642372098</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="10">
         <v>0.13689999282359999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
+      <c r="A28" s="5">
         <v>296</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="6">
         <v>0.67000001668929998</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="7">
         <v>6.3900001347064903E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="8">
         <v>306</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="9">
         <v>0.50999999046325595</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="10">
         <v>0.40130001306533802</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="A30" s="5">
         <v>310</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="6">
         <v>0.37000000476837103</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="7">
         <v>0.22030000388622201</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="A31" s="8">
         <v>312</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="9">
         <v>0.270000010728836</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="10">
         <v>3.8100000470876597E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
+      <c r="A32" s="5">
         <v>324</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="6">
         <v>0.56999999284744196</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="7">
         <v>0.19069999456405601</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="A33" s="8">
         <v>326</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="9">
         <v>0.30000001192092801</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="10">
         <v>0.14300000667571999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
+      <c r="A34" s="5">
         <v>332</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="6">
         <v>0.81999999284744196</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="7">
         <v>0.218099996447563</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+      <c r="A35" s="8">
         <v>336</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="9">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="10">
         <v>0.17479999363422299</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
+      <c r="A36" s="5">
         <v>338</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="6">
         <v>0.479999989271163</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="7">
         <v>0.32730001211166299</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="A37" s="8">
         <v>354</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="9">
         <v>0.43000000715255698</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="10">
         <v>0.51080000400543202</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
+      <c r="A38" s="5">
         <v>364</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="6">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="7">
         <v>0.22859999537467901</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="8">
         <v>376</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="9">
         <v>0.34000000357627802</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="10">
         <v>0.27379998564720098</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
+      <c r="A40" s="5">
         <v>377</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="6">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="7">
         <v>0.135600000619888</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="8">
         <v>378</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10">
         <v>0.21909999847412101</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
+      <c r="A42" s="5">
         <v>386</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="6">
         <v>0.75</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="7">
         <v>0.38429999351501398</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="8">
         <v>387</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="9">
         <v>0.75</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="10">
         <v>0.71509999036788896</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
+      <c r="A44" s="5">
         <v>394</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="6">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="7">
         <v>0.46230000257491999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+      <c r="A45" s="8">
         <v>395</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="9">
         <v>0.5</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="10">
         <v>0.66060000658035201</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
+      <c r="A46" s="5">
         <v>398</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="6">
         <v>0.57999998331069902</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="7">
         <v>0.25789999961853</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
+      <c r="A47" s="8">
         <v>403</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="9">
         <v>0.62000000476837103</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="10">
         <v>0.42050001025199801</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
+      <c r="A48" s="5">
         <v>407</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="6">
         <v>0.52999997138976995</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="7">
         <v>0.33649998903274497</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
+      <c r="A49" s="8">
         <v>409</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="9">
         <v>0.51999998092651301</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="10">
         <v>0.44900000095367398</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="15">
+      <c r="A50" s="5">
         <v>410</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="6">
         <v>0.75</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="7">
         <v>0.55980002880096402</v>
       </c>
     </row>
@@ -30572,7 +30556,7 @@
   <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C130" sqref="A1:C127"/>
+      <selection sqref="A1:C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32232,6 +32216,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b3314816-91d3-4ec9-a05c-c18848efac6a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B3050512DA5D7A478F57E5F7BD46B65B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bab5f523c40c21fcffeffdde1335745">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b3314816-91d3-4ec9-a05c-c18848efac6a" xmlns:ns4="3b3c4577-a8d4-47a0-9e14-03d6eeffa44f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de8c05e5e499606a4824b41eed35ac96" ns3:_="" ns4:_="">
     <xsd:import namespace="b3314816-91d3-4ec9-a05c-c18848efac6a"/>
@@ -32484,24 +32485,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889DE1B8-C1E2-46C6-88CF-7501D799ED3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b3c4577-a8d4-47a0-9e14-03d6eeffa44f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b3314816-91d3-4ec9-a05c-c18848efac6a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b3314816-91d3-4ec9-a05c-c18848efac6a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{376BFEB9-DACC-4E39-BBAB-EDE6D304488D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4939CA15-903C-4541-9775-821F3434A5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32518,29 +32527,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{376BFEB9-DACC-4E39-BBAB-EDE6D304488D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889DE1B8-C1E2-46C6-88CF-7501D799ED3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b3c4577-a8d4-47a0-9e14-03d6eeffa44f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b3314816-91d3-4ec9-a05c-c18848efac6a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>